--- a/Templates/RiceStandingReport.xlsx
+++ b/Templates/RiceStandingReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\AgRecords\AgRecords Github\AgRecords\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3E7AD78-C3F8-49FB-9833-5D1F8ECACC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90CAB22-4190-4023-BBE8-F4A94C8F897C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FEBEE0CC-04AB-4D9C-9226-6DCD7F171251}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AA$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Y$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
     <author>DA</author>
   </authors>
   <commentList>
-    <comment ref="M14" authorId="0" shapeId="0" xr:uid="{01FFAA40-D58D-40E2-8013-65EC5646A6F4}">
+    <comment ref="K14" authorId="0" shapeId="0" xr:uid="{01FFAA40-D58D-40E2-8013-65EC5646A6F4}">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N14" authorId="0" shapeId="0" xr:uid="{D5A808B0-A6F9-42E6-990E-AD2420D0B281}">
+    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{D5A808B0-A6F9-42E6-990E-AD2420D0B281}">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M22" authorId="0" shapeId="0" xr:uid="{49FFE871-72D7-419C-8CAC-CAE879363D3D}">
+    <comment ref="K22" authorId="0" shapeId="0" xr:uid="{49FFE871-72D7-419C-8CAC-CAE879363D3D}">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N22" authorId="0" shapeId="0" xr:uid="{E41C312F-F0CC-48D3-A899-A00D4B46BD54}">
+    <comment ref="L22" authorId="0" shapeId="0" xr:uid="{E41C312F-F0CC-48D3-A899-A00D4B46BD54}">
       <text>
         <r>
           <rPr>
@@ -138,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M27" authorId="0" shapeId="0" xr:uid="{F0064B9D-E5D6-47D6-88F2-80F525E87DA0}">
+    <comment ref="K27" authorId="0" shapeId="0" xr:uid="{F0064B9D-E5D6-47D6-88F2-80F525E87DA0}">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N27" authorId="0" shapeId="0" xr:uid="{C913A260-D88B-462A-9C03-B464D60CF6A6}">
+    <comment ref="L27" authorId="0" shapeId="0" xr:uid="{C913A260-D88B-462A-9C03-B464D60CF6A6}">
       <text>
         <r>
           <rPr>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>Province: Nueva Vizcaya</t>
   </si>
@@ -236,12 +236,6 @@
   </si>
   <si>
     <t>TOTAL</t>
-  </si>
-  <si>
-    <t>PHYSICAL AREA</t>
-  </si>
-  <si>
-    <t>BALANCE</t>
   </si>
   <si>
     <t>Total</t>
@@ -460,7 +454,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
@@ -468,8 +462,7 @@
     <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -625,18 +618,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -651,7 +638,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -781,19 +768,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -822,17 +796,6 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
@@ -885,7 +848,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -910,92 +873,14 @@
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1003,17 +888,11 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="13" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1029,6 +908,63 @@
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1348,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0162800-AE9A-4EDA-9702-BC9C1F8CBC6A}">
-  <dimension ref="A1:AI44"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="10" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1363,32 +1299,31 @@
     <col min="5" max="5" width="28.88671875" customWidth="1"/>
     <col min="6" max="6" width="26.33203125" customWidth="1"/>
     <col min="7" max="7" width="31.6640625" customWidth="1"/>
-    <col min="8" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="26.44140625" customWidth="1"/>
-    <col min="11" max="11" width="23.88671875" customWidth="1"/>
-    <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" customWidth="1"/>
-    <col min="15" max="15" width="30.109375" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="19.6640625" customWidth="1"/>
-    <col min="18" max="18" width="21.5546875" customWidth="1"/>
-    <col min="19" max="19" width="20.5546875" customWidth="1"/>
-    <col min="20" max="20" width="20.88671875" customWidth="1"/>
-    <col min="21" max="21" width="26.5546875" customWidth="1"/>
-    <col min="22" max="22" width="29.33203125" customWidth="1"/>
-    <col min="23" max="23" width="29.44140625" customWidth="1"/>
-    <col min="24" max="24" width="24.33203125" customWidth="1"/>
-    <col min="25" max="25" width="25.5546875" customWidth="1"/>
-    <col min="26" max="26" width="24.88671875" customWidth="1"/>
-    <col min="27" max="27" width="45.109375" customWidth="1"/>
-    <col min="30" max="30" width="34.33203125" customWidth="1"/>
-    <col min="31" max="31" width="31" customWidth="1"/>
-    <col min="34" max="34" width="5.109375" customWidth="1"/>
-    <col min="35" max="35" width="28.88671875" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
+    <col min="13" max="13" width="30.109375" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" customWidth="1"/>
+    <col min="17" max="17" width="20.5546875" customWidth="1"/>
+    <col min="18" max="18" width="20.88671875" customWidth="1"/>
+    <col min="19" max="19" width="26.5546875" customWidth="1"/>
+    <col min="20" max="20" width="29.33203125" customWidth="1"/>
+    <col min="21" max="21" width="29.44140625" customWidth="1"/>
+    <col min="22" max="22" width="24.33203125" customWidth="1"/>
+    <col min="23" max="23" width="25.5546875" customWidth="1"/>
+    <col min="24" max="24" width="24.88671875" customWidth="1"/>
+    <col min="25" max="25" width="45.109375" customWidth="1"/>
+    <col min="28" max="28" width="34.33203125" customWidth="1"/>
+    <col min="29" max="29" width="31" customWidth="1"/>
+    <col min="32" max="32" width="5.109375" customWidth="1"/>
+    <col min="33" max="33" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:33" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1416,10 +1351,8 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-    </row>
-    <row r="2" spans="1:35" ht="25.8" x14ac:dyDescent="0.5">
+    </row>
+    <row r="2" spans="1:33" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1447,10 +1380,8 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-    </row>
-    <row r="3" spans="1:35" ht="25.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:33" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1478,10 +1409,8 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-    </row>
-    <row r="4" spans="1:35" ht="25.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:33" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1493,12 +1422,12 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="M4" s="8"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="8"/>
+      <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
@@ -1509,12 +1438,10 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-    </row>
-    <row r="5" spans="1:35" ht="25.8" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:33" ht="25.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
@@ -1524,8 +1451,8 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -1540,1081 +1467,1019 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-    </row>
-    <row r="6" spans="1:35" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    </row>
+    <row r="6" spans="1:33" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="12" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="15" t="s">
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="15" t="s">
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17" t="s">
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
+      <c r="B7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="V7" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="W7" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+    </row>
+    <row r="10" spans="1:33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="S7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="U7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="V7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="W7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="X7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA7" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-    </row>
-    <row r="10" spans="1:35" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="31">
+      <c r="B10" s="11">
         <f>SUM(B11:B30)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="11">
         <f>SUM(C11:C30)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="11">
         <f t="shared" ref="D10:G10" si="0">SUM(D11:D30)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="31">
-        <f>SUM(H11:H30)</f>
+      <c r="H10" s="11">
+        <f t="shared" ref="H10:I10" si="1">SUM(H11:H30)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="31">
-        <f t="shared" ref="I10:K10" si="1">SUM(I11:I30)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="31">
+      <c r="I10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="31">
-        <f t="shared" si="1"/>
+      <c r="J10" s="11">
+        <f>SUM(J11:J30)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="31">
-        <f>SUM(L11:L30)</f>
+      <c r="K10" s="11">
+        <f>SUM(K11:K30)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="31">
-        <f>SUM(M11:M30)</f>
+      <c r="L10" s="11">
+        <f t="shared" ref="L10:W10" si="2">SUM(L11:L30)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="31">
-        <f t="shared" ref="N10:Y10" si="2">SUM(N11:N30)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="31">
+      <c r="M10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P10" s="31">
+      <c r="N10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="O10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="31">
+      <c r="P10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S10" s="31">
+      <c r="Q10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T10" s="31">
+      <c r="R10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U10" s="31">
+      <c r="S10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V10" s="31">
+      <c r="T10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W10" s="31">
+      <c r="U10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X10" s="31">
+      <c r="V10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="31">
+      <c r="W10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="31">
-        <f>SUM(Z11:Z30)</f>
+      <c r="X10" s="11">
+        <f>SUM(X11:X30)</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="31">
-        <f>SUM(AA11:AA30)</f>
+      <c r="Y10" s="11">
+        <f>SUM(Y11:Y30)</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="31">
-        <f>SUM(AD11:AD30)</f>
+      <c r="AB10" s="11">
+        <f>SUM(AB11:AB30)</f>
         <v>4403.96</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="AB11" s="13">
+        <v>301.25</v>
+      </c>
+      <c r="AC11" s="14">
+        <f>AB11-Y11</f>
+        <v>301.25</v>
+      </c>
+      <c r="AG11" s="15"/>
+    </row>
+    <row r="12" spans="1:33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="AB12" s="13">
+        <v>141.5</v>
+      </c>
+      <c r="AC12" s="14">
+        <f t="shared" ref="AC12:AC30" si="3">AB12-Y12</f>
+        <v>141.5</v>
+      </c>
+      <c r="AG12" s="15"/>
+    </row>
+    <row r="13" spans="1:33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AD11" s="39">
-        <v>301.25</v>
-      </c>
-      <c r="AE11" s="40">
-        <f>AD11-AA11</f>
-        <v>301.25</v>
-      </c>
-      <c r="AI11" s="41"/>
-    </row>
-    <row r="12" spans="1:35" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AD12" s="39">
-        <v>141.5</v>
-      </c>
-      <c r="AE12" s="40">
-        <f t="shared" ref="AE12:AE30" si="3">AD12-AA12</f>
-        <v>141.5</v>
-      </c>
-      <c r="AI12" s="41"/>
-    </row>
-    <row r="13" spans="1:35" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AD13" s="39">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="AB13" s="13">
         <v>106.45</v>
       </c>
-      <c r="AE13" s="40">
+      <c r="AC13" s="14">
         <f t="shared" si="3"/>
         <v>106.45</v>
       </c>
-      <c r="AI13" s="41"/>
-    </row>
-    <row r="14" spans="1:35" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AD14" s="39">
+      <c r="AG13" s="15"/>
+    </row>
+    <row r="14" spans="1:33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="AB14" s="13">
         <v>111.17</v>
       </c>
-      <c r="AE14" s="40">
+      <c r="AC14" s="14">
         <f t="shared" si="3"/>
         <v>111.17</v>
       </c>
-      <c r="AI14" s="41"/>
-    </row>
-    <row r="15" spans="1:35" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AD15" s="39">
+      <c r="AG14" s="15"/>
+    </row>
+    <row r="15" spans="1:33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="AB15" s="13">
         <v>246.7</v>
       </c>
-      <c r="AE15" s="40">
+      <c r="AC15" s="14">
         <f t="shared" si="3"/>
         <v>246.7</v>
       </c>
-      <c r="AI15" s="41"/>
-    </row>
-    <row r="16" spans="1:35" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AD16" s="39">
+      <c r="AG15" s="15"/>
+    </row>
+    <row r="16" spans="1:33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="AB16" s="13">
         <v>185.55</v>
       </c>
-      <c r="AE16" s="40">
+      <c r="AC16" s="14">
         <f t="shared" si="3"/>
         <v>185.55</v>
       </c>
-      <c r="AI16" s="43"/>
-    </row>
-    <row r="17" spans="1:35" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AD17" s="39">
+      <c r="AG16" s="16"/>
+    </row>
+    <row r="17" spans="1:33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="AB17" s="13">
         <v>78.2</v>
       </c>
-      <c r="AE17" s="40">
+      <c r="AC17" s="14">
         <f t="shared" si="3"/>
         <v>78.2</v>
       </c>
-      <c r="AI17" s="43"/>
-    </row>
-    <row r="18" spans="1:35" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AD18" s="39">
+      <c r="AG17" s="16"/>
+    </row>
+    <row r="18" spans="1:33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="AB18" s="13">
         <v>117.06</v>
       </c>
-      <c r="AE18" s="40">
+      <c r="AC18" s="14">
         <f t="shared" si="3"/>
         <v>117.06</v>
       </c>
-      <c r="AI18" s="43"/>
-    </row>
-    <row r="19" spans="1:35" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AD19" s="39">
+      <c r="AG18" s="16"/>
+    </row>
+    <row r="19" spans="1:33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="AB19" s="13">
         <v>73.290000000000006</v>
       </c>
-      <c r="AE19" s="40">
+      <c r="AC19" s="14">
         <f t="shared" si="3"/>
         <v>73.290000000000006</v>
       </c>
-      <c r="AI19" s="43"/>
-    </row>
-    <row r="20" spans="1:35" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AD20" s="39">
+      <c r="AG19" s="16"/>
+    </row>
+    <row r="20" spans="1:33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="AB20" s="13">
         <v>182.35</v>
       </c>
-      <c r="AE20" s="40">
+      <c r="AC20" s="14">
         <f t="shared" si="3"/>
         <v>182.35</v>
       </c>
-      <c r="AI20" s="41"/>
-    </row>
-    <row r="21" spans="1:35" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AD21" s="39">
+      <c r="AG20" s="15"/>
+    </row>
+    <row r="21" spans="1:33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="AB21" s="13">
         <v>235.51</v>
       </c>
-      <c r="AE21" s="40">
+      <c r="AC21" s="14">
         <f t="shared" si="3"/>
         <v>235.51</v>
       </c>
-      <c r="AI21" s="41"/>
-    </row>
-    <row r="22" spans="1:35" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AD22" s="39">
+      <c r="AG21" s="15"/>
+    </row>
+    <row r="22" spans="1:33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="AB22" s="13">
         <v>182.78</v>
       </c>
-      <c r="AE22" s="40">
+      <c r="AC22" s="14">
         <f t="shared" si="3"/>
         <v>182.78</v>
       </c>
-      <c r="AI22" s="43"/>
-    </row>
-    <row r="23" spans="1:35" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AD23" s="39">
+      <c r="AG22" s="16"/>
+    </row>
+    <row r="23" spans="1:33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="AB23" s="13">
         <v>222.75</v>
       </c>
-      <c r="AE23" s="40">
+      <c r="AC23" s="14">
         <f t="shared" si="3"/>
         <v>222.75</v>
       </c>
-      <c r="AI23" s="43"/>
-    </row>
-    <row r="24" spans="1:35" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AD24" s="39">
+      <c r="AG23" s="16"/>
+    </row>
+    <row r="24" spans="1:33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="AB24" s="13">
         <v>88.7</v>
       </c>
-      <c r="AE24" s="40">
+      <c r="AC24" s="14">
         <f t="shared" si="3"/>
         <v>88.7</v>
       </c>
-      <c r="AI24" s="43"/>
-    </row>
-    <row r="25" spans="1:35" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AD25" s="39">
+      <c r="AG24" s="16"/>
+    </row>
+    <row r="25" spans="1:33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="AB25" s="13">
         <v>315.85000000000002</v>
       </c>
-      <c r="AE25" s="40">
+      <c r="AC25" s="14">
         <f t="shared" si="3"/>
         <v>315.85000000000002</v>
       </c>
-      <c r="AI25" s="41"/>
-    </row>
-    <row r="26" spans="1:35" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AD26" s="39">
+      <c r="AG25" s="15"/>
+    </row>
+    <row r="26" spans="1:33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="AB26" s="13">
         <v>312.8</v>
       </c>
-      <c r="AE26" s="40">
+      <c r="AC26" s="14">
         <f t="shared" si="3"/>
         <v>312.8</v>
       </c>
-      <c r="AI26" s="41"/>
-    </row>
-    <row r="27" spans="1:35" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
-      <c r="AD27" s="39">
+      <c r="AG26" s="15"/>
+    </row>
+    <row r="27" spans="1:33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="AB27" s="13">
         <v>347.4</v>
       </c>
-      <c r="AE27" s="40">
+      <c r="AC27" s="14">
         <f t="shared" si="3"/>
         <v>347.4</v>
       </c>
-      <c r="AI27" s="43"/>
-    </row>
-    <row r="28" spans="1:35" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35"/>
-      <c r="AD28" s="39">
+      <c r="AG27" s="16"/>
+    </row>
+    <row r="28" spans="1:33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="AB28" s="13">
         <v>258.29000000000002</v>
       </c>
-      <c r="AE28" s="40">
+      <c r="AC28" s="14">
         <f t="shared" si="3"/>
         <v>258.29000000000002</v>
       </c>
-      <c r="AI28" s="43"/>
-    </row>
-    <row r="29" spans="1:35" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="35"/>
-      <c r="AD29" s="39">
+      <c r="AG28" s="16"/>
+    </row>
+    <row r="29" spans="1:33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="AB29" s="13">
         <v>617.79999999999995</v>
       </c>
-      <c r="AE29" s="40">
+      <c r="AC29" s="14">
         <f t="shared" si="3"/>
         <v>617.79999999999995</v>
       </c>
-      <c r="AI29" s="43"/>
-    </row>
-    <row r="30" spans="1:35" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="35"/>
-      <c r="AD30" s="39">
+      <c r="AG29" s="16"/>
+    </row>
+    <row r="30" spans="1:33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="AB30" s="13">
         <v>278.56</v>
       </c>
-      <c r="AE30" s="40">
+      <c r="AC30" s="14">
         <f t="shared" si="3"/>
         <v>278.56</v>
       </c>
-      <c r="AI30" s="43"/>
-    </row>
-    <row r="31" spans="1:35" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG30" s="16"/>
+    </row>
+    <row r="31" spans="1:33" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2640,19 +2505,17 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-    </row>
-    <row r="32" spans="1:35" ht="26.4" x14ac:dyDescent="0.5">
-      <c r="A32" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="46"/>
+    </row>
+    <row r="32" spans="1:33" ht="26.4" x14ac:dyDescent="0.5">
+      <c r="A32" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="18"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="47"/>
+      <c r="G32" s="19"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2664,21 +2527,19 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-    </row>
-    <row r="33" spans="1:27" ht="26.4" x14ac:dyDescent="0.5">
-      <c r="A33" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="46"/>
+    </row>
+    <row r="33" spans="1:25" ht="26.4" x14ac:dyDescent="0.5">
+      <c r="A33" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="18"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2695,21 +2556,19 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-    </row>
-    <row r="34" spans="1:27" ht="26.4" x14ac:dyDescent="0.5">
-      <c r="A34" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="46"/>
+    </row>
+    <row r="34" spans="1:25" ht="26.4" x14ac:dyDescent="0.5">
+      <c r="A34" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="18"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2726,21 +2585,19 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-    </row>
-    <row r="35" spans="1:27" ht="26.4" x14ac:dyDescent="0.5">
-      <c r="A35" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="46"/>
+    </row>
+    <row r="35" spans="1:25" ht="26.4" x14ac:dyDescent="0.5">
+      <c r="A35" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="18"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -2757,21 +2614,19 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-    </row>
-    <row r="36" spans="1:27" ht="26.4" x14ac:dyDescent="0.5">
-      <c r="A36" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="46"/>
+    </row>
+    <row r="36" spans="1:25" ht="26.4" x14ac:dyDescent="0.5">
+      <c r="A36" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="18"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -2788,21 +2643,19 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-    </row>
-    <row r="37" spans="1:27" ht="26.4" x14ac:dyDescent="0.5">
-      <c r="A37" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="46"/>
+    </row>
+    <row r="37" spans="1:25" ht="26.4" x14ac:dyDescent="0.5">
+      <c r="A37" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="18"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2819,19 +2672,17 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-    </row>
-    <row r="38" spans="1:27" ht="26.4" x14ac:dyDescent="0.5">
-      <c r="A38" s="48"/>
-      <c r="B38" s="46"/>
+    </row>
+    <row r="38" spans="1:25" ht="26.4" x14ac:dyDescent="0.5">
+      <c r="A38" s="20"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2848,21 +2699,19 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-    </row>
-    <row r="39" spans="1:27" ht="26.4" x14ac:dyDescent="0.5">
-      <c r="A39" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="46"/>
+    </row>
+    <row r="39" spans="1:25" ht="26.4" x14ac:dyDescent="0.5">
+      <c r="A39" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="18"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2879,17 +2728,15 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="1:27" ht="25.8" x14ac:dyDescent="0.5">
+    </row>
+    <row r="40" spans="1:25" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2908,17 +2755,15 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="1:27" ht="25.8" x14ac:dyDescent="0.5">
+    </row>
+    <row r="41" spans="1:25" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2937,26 +2782,24 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-    </row>
-    <row r="42" spans="1:27" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A42" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
+    </row>
+    <row r="42" spans="1:25" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A42" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -2970,26 +2813,24 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-    </row>
-    <row r="43" spans="1:27" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A43" s="50"/>
-      <c r="B43" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="50"/>
+    </row>
+    <row r="43" spans="1:25" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A43" s="22"/>
+      <c r="B43" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="22"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="G43" s="51" t="s">
-        <v>48</v>
+      <c r="G43" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -2997,31 +2838,29 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="N43" s="24"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="52"/>
+      <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-    </row>
-    <row r="44" spans="1:27" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="50"/>
+    </row>
+    <row r="44" spans="1:25" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="22"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="G44" s="50" t="s">
-        <v>50</v>
+      <c r="G44" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -3034,55 +2873,50 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="29">
+    <mergeCell ref="T6:Y6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="V7:V9"/>
+    <mergeCell ref="W7:W9"/>
     <mergeCell ref="X7:X9"/>
     <mergeCell ref="Y7:Y9"/>
-    <mergeCell ref="Z7:Z9"/>
-    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="Q7:Q9"/>
     <mergeCell ref="R7:R9"/>
     <mergeCell ref="S7:S9"/>
     <mergeCell ref="T7:T9"/>
     <mergeCell ref="U7:U9"/>
-    <mergeCell ref="V7:V9"/>
-    <mergeCell ref="W7:W9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:S6"/>
     <mergeCell ref="O7:O9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="Q7:Q9"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="K7:K9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="V6:AA6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M9"/>
   </mergeCells>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="7.874015748031496E-2" bottom="7.874015748031496E-2" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="25" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="27" max="1048575" man="1"/>
+    <brk id="25" max="1048575" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
